--- a/URS/DbLayouts/L6-共同作業/CdCode.xlsx
+++ b/URS/DbLayouts/L6-共同作業/CdCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D205D34-4C44-4E37-B3CE-3A8B1B40A094}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D149C8-BC59-423B-B103-A730730F5B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -194,10 +194,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Item</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Code</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -254,71 +250,111 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>CdCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefTypeEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefCode asc,Code asc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>defCodeEq2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefCode = ,AND DefType = ,AND Code %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefCode ASC,Code ASC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCodeList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDefList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DefType = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>getItemFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DefType = ,AND DefCode = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCodeList2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefType = ,AND DefCode = ,AND Code ^i</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefCode &lt;&gt; ,AND DefType = ,AND Code %, AND Item %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code asc</t>
+  </si>
+  <si>
+    <t>Code asc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>defCodeEq</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefTypeEq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefCode asc,Code asc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefCode = ,AND Code %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>defCodeEq2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefCode = ,AND DefType = ,AND Code %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefCode &lt;&gt; ,AND DefType = ,AND Code %</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefCode ASC,Code ASC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCodeList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>getDefList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">DefType = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>getItemFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">DefType = ,AND DefCode = ,AND Code = </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">DefType = ,AND DefCode = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCodeList2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefType = ,AND DefCode = ,AND Code ^i</t>
+    <t xml:space="preserve">DefCode = ,AND Code % </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>defItemEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectFlag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效記號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:已放行, 2:未放行
+因應L6301放行新增記號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefCode = ,AND Item %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>defItemEq3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AND Item %</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -601,6 +637,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -950,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -966,12 +1005,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>32</v>
@@ -981,8 +1020,8 @@
       <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="20" t="s">
         <v>22</v>
       </c>
@@ -994,12 +1033,12 @@
       <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="30"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="22"/>
@@ -1007,10 +1046,10 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="24"/>
       <c r="D4" s="23"/>
       <c r="E4" s="22"/>
@@ -1018,10 +1057,10 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="24"/>
       <c r="D5" s="23"/>
       <c r="E5" s="22"/>
@@ -1029,10 +1068,10 @@
       <c r="G5" s="22"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="24"/>
       <c r="D6" s="23"/>
       <c r="E6" s="22"/>
@@ -1040,10 +1079,10 @@
       <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="24"/>
       <c r="D7" s="23"/>
       <c r="E7" s="22"/>
@@ -1078,10 +1117,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="26" t="s">
         <v>9</v>
@@ -1100,20 +1139,20 @@
         <v>2</v>
       </c>
       <c r="B10" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>43</v>
-      </c>
       <c r="D10" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="26">
         <v>2</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1122,7 +1161,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>30</v>
@@ -1146,10 +1185,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="26" t="s">
         <v>20</v>
@@ -1170,7 +1209,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>31</v>
@@ -1185,29 +1224,31 @@
         <v>10</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="32.4">
       <c r="A14" s="26">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>12</v>
+      <c r="B14" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>67</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="26"/>
+        <v>35</v>
+      </c>
+      <c r="E14" s="29">
+        <v>1</v>
+      </c>
       <c r="F14" s="26" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1216,17 +1257,15 @@
         <v>7</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="26">
-        <v>6</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E15" s="26"/>
       <c r="F15" s="26" t="s">
         <v>10</v>
       </c>
@@ -1240,15 +1279,17 @@
         <v>8</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="26"/>
+        <v>9</v>
+      </c>
+      <c r="E16" s="26">
+        <v>6</v>
+      </c>
       <c r="F16" s="26" t="s">
         <v>10</v>
       </c>
@@ -1262,17 +1303,15 @@
         <v>9</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="26">
-        <v>6</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E17" s="26"/>
       <c r="F17" s="26" t="s">
         <v>10</v>
       </c>
@@ -1281,10 +1320,21 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="4"/>
+      <c r="A18" s="29">
+        <v>10</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="26">
+        <v>6</v>
+      </c>
       <c r="F18" s="10"/>
       <c r="G18" s="6"/>
     </row>
@@ -1356,12 +1406,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" activeCellId="8" sqref="B10 C21 C10 D10 H7 C13 C12 K4 L1"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1385,79 +1435,101 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/URS/DbLayouts/L6-共同作業/CdCode.xlsx
+++ b/URS/DbLayouts/L6-共同作業/CdCode.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D149C8-BC59-423B-B103-A730730F5B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC1D6D0-D8AF-4462-AC9B-E467BD2BF290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -355,6 +355,14 @@
   </si>
   <si>
     <t>AND Item %</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCodeListWithFlag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DefCode = ,AND Enable = ,AND EffectFlag = </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -990,7 +998,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1406,17 +1414,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" activeCellId="8" sqref="B10 C21 C10 D10 H7 C13 C12 K4 L1"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="20.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
@@ -1532,6 +1540,17 @@
         <v>60</v>
       </c>
     </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
